--- a/Regression/105_Generic_Python_MultiInputConfigs/config.xlsx
+++ b/Regression/105_Generic_Python_MultiInputConfigs/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="270" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="5" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="270" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>Campaign_Filename</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>Enable_Spatial_Output</t>
+  </si>
+  <si>
+    <t>Report_Event_Recorder</t>
   </si>
 </sst>
 </file>
@@ -358,31 +361,31 @@
   </numFmts>
   <fonts count="5">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Courier 10 Pitch"/>
+      <family val="0"/>
       <charset val="1"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -428,8 +431,14 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -449,14 +458,15 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
       <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.0588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6377551020408"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -611,9 +621,11 @@
       <selection activeCell="A15" activeCellId="0" pane="topLeft" sqref="A15"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5607843137255"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -782,10 +794,11 @@
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7490196078431"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -839,12 +852,14 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.1843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -876,7 +891,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -892,7 +907,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -900,7 +915,7 @@
         <v>62</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1119,15 +1134,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+      <selection activeCell="A11" activeCellId="0" pane="topLeft" sqref="A11"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0470588235294"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -1146,67 +1163,67 @@
         <v>95</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="s">
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B10" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1226,15 +1243,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
-      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
+      <selection activeCell="C5" activeCellId="0" pane="topLeft" sqref="C5"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -1266,6 +1284,14 @@
         <v>108</v>
       </c>
       <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
